--- a/data_year/zb/固定资产投资和房地产/按行业分设备工器具购置固定资产投资(不含农户)增长情况（2018-）.xlsx
+++ b/data_year/zb/固定资产投资和房地产/按行业分设备工器具购置固定资产投资(不含农户)增长情况（2018-）.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK4"/>
+  <dimension ref="A1:DK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,341 +1015,341 @@
         <v>-2.62</v>
       </c>
       <c r="C2" t="n">
-        <v>6.46</v>
+        <v>20.11</v>
       </c>
       <c r="D2" t="n">
-        <v>-38.16</v>
+        <v>14.36</v>
       </c>
       <c r="E2" t="n">
-        <v>24.36</v>
+        <v>40.52</v>
       </c>
       <c r="F2" t="n">
-        <v>9.4</v>
+        <v>5.26</v>
       </c>
       <c r="G2" t="n">
-        <v>54.11</v>
+        <v>-16.6</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.38</v>
+        <v>18.19</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.91</v>
+        <v>-3.73</v>
       </c>
       <c r="J2" t="n">
-        <v>-7.56</v>
+        <v>-5.21</v>
       </c>
       <c r="K2" t="n">
-        <v>19.06</v>
+        <v>19.88</v>
       </c>
       <c r="L2" t="n">
-        <v>61.77</v>
+        <v>8.32</v>
       </c>
       <c r="M2" t="n">
-        <v>11.59</v>
+        <v>-0.44</v>
       </c>
       <c r="N2" t="n">
-        <v>-35.4</v>
+        <v>-13.05</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.66</v>
+        <v>4.83</v>
       </c>
       <c r="P2" t="n">
-        <v>14.72</v>
+        <v>7.21</v>
       </c>
       <c r="Q2" t="n">
-        <v>-18.1</v>
+        <v>-37.72</v>
       </c>
       <c r="R2" t="n">
-        <v>40.26</v>
+        <v>29.66</v>
       </c>
       <c r="S2" t="n">
-        <v>-10.66</v>
+        <v>21.81</v>
       </c>
       <c r="T2" t="n">
-        <v>9.77</v>
+        <v>7.67</v>
       </c>
       <c r="U2" t="n">
-        <v>12.92</v>
+        <v>13.48</v>
       </c>
       <c r="V2" t="n">
-        <v>10.17</v>
+        <v>18.01</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.14</v>
+        <v>1.83</v>
       </c>
       <c r="X2" t="n">
-        <v>6.57</v>
+        <v>11.98</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.37</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>75.91</v>
+        <v>3.87</v>
       </c>
       <c r="AA2" t="n">
-        <v>-3.08</v>
+        <v>7.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.31</v>
+        <v>8.23</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>9.98</v>
       </c>
       <c r="AD2" t="n">
-        <v>-2</v>
+        <v>13.6</v>
       </c>
       <c r="AE2" t="n">
-        <v>-4.96</v>
+        <v>17.21</v>
       </c>
       <c r="AF2" t="n">
-        <v>-36.24</v>
+        <v>-12.56</v>
       </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="n">
-        <v>15.09</v>
+        <v>13.1</v>
       </c>
       <c r="AI2" t="n">
-        <v>-12.28</v>
+        <v>-15.52</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-13.24</v>
+        <v>-11.58</v>
       </c>
       <c r="AK2" t="n">
-        <v>-19.94</v>
+        <v>-18.61</v>
       </c>
       <c r="AL2" t="n">
-        <v>50.84</v>
+        <v>93.5</v>
       </c>
       <c r="AM2" t="n">
-        <v>10.98</v>
+        <v>33.19</v>
       </c>
       <c r="AN2" t="n">
-        <v>-24.39</v>
+        <v>-9.91</v>
       </c>
       <c r="AO2" t="n">
-        <v>-14.35</v>
+        <v>9.51</v>
       </c>
       <c r="AP2" t="n">
-        <v>-27.82</v>
+        <v>-48.88</v>
       </c>
       <c r="AQ2" t="n">
-        <v>28.86</v>
+        <v>34.81</v>
       </c>
       <c r="AR2" t="n">
-        <v>-7.82</v>
+        <v>-13.87</v>
       </c>
       <c r="AS2" t="n">
-        <v>6.23</v>
+        <v>-7.49</v>
       </c>
       <c r="AT2" t="n">
-        <v>-10.14</v>
+        <v>-27.42</v>
       </c>
       <c r="AU2" t="n">
-        <v>14.46</v>
+        <v>-4.28</v>
       </c>
       <c r="AV2" t="n">
-        <v>-1.1334550527493</v>
+        <v>-2.6415516890597</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.29</v>
+        <v>-2.44</v>
       </c>
       <c r="AX2" t="n">
-        <v>-34.23</v>
+        <v>-25.98</v>
       </c>
       <c r="AY2" t="n">
-        <v>-29.87</v>
+        <v>-19.29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-2</v>
+        <v>10.01</v>
       </c>
       <c r="BA2" t="n">
-        <v>14.54</v>
+        <v>23.08</v>
       </c>
       <c r="BB2" t="n">
-        <v>-19.19</v>
+        <v>-2.59</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.99</v>
+        <v>13.18</v>
       </c>
       <c r="BD2" t="n">
-        <v>-37.25</v>
+        <v>-20.83</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.84</v>
+        <v>3.02</v>
       </c>
       <c r="BF2" t="n">
-        <v>-12.7</v>
+        <v>-7.16</v>
       </c>
       <c r="BG2" t="n">
-        <v>14.1</v>
+        <v>21.16</v>
       </c>
       <c r="BH2" t="n">
-        <v>-44.8</v>
+        <v>-25.31</v>
       </c>
       <c r="BI2" t="n">
-        <v>-5.25</v>
+        <v>4.57</v>
       </c>
       <c r="BJ2" t="n">
-        <v>4.6</v>
+        <v>7.53</v>
       </c>
       <c r="BK2" t="n">
-        <v>5.4</v>
+        <v>-16.71</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.74</v>
+        <v>5.41</v>
       </c>
       <c r="BM2" t="n">
-        <v>7.92</v>
+        <v>-3.97</v>
       </c>
       <c r="BN2" t="n">
-        <v>10.89</v>
+        <v>18.31</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.89</v>
+        <v>8.23</v>
       </c>
       <c r="BP2" t="n">
-        <v>37.08</v>
+        <v>19.1</v>
       </c>
       <c r="BQ2" t="n">
-        <v>5.51</v>
+        <v>-3.12</v>
       </c>
       <c r="BR2" t="n">
-        <v>2.37</v>
+        <v>6.44</v>
       </c>
       <c r="BS2" t="n">
-        <v>18.11</v>
+        <v>4.54</v>
       </c>
       <c r="BT2" t="n">
-        <v>24.01</v>
+        <v>46.07</v>
       </c>
       <c r="BU2" t="n">
-        <v>-6.31</v>
+        <v>-13.9</v>
       </c>
       <c r="BV2" t="n">
-        <v>-13.74</v>
+        <v>-2.58</v>
       </c>
       <c r="BW2" t="n">
-        <v>-16.8</v>
+        <v>-9.9</v>
       </c>
       <c r="BX2" t="n">
-        <v>14.56</v>
+        <v>12.89</v>
       </c>
       <c r="BY2" t="n">
-        <v>18.84</v>
+        <v>10.81</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-5.19</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="CA2" t="n">
-        <v>7.6</v>
+        <v>13.38</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.24</v>
+        <v>1.08</v>
       </c>
       <c r="CC2" t="n">
-        <v>9.08</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="CD2" t="n">
-        <v>-53.41</v>
+        <v>-41.79</v>
       </c>
       <c r="CE2" t="n">
-        <v>6.74</v>
+        <v>2.59</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.51</v>
+        <v>13.99</v>
       </c>
       <c r="CG2" t="n">
-        <v>-5.7</v>
+        <v>32.5</v>
       </c>
       <c r="CH2" t="n">
-        <v>-24.34</v>
+        <v>-10.41</v>
       </c>
       <c r="CI2" t="n">
-        <v>-15.13</v>
+        <v>16.69</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3.94</v>
+        <v>-6.29</v>
       </c>
       <c r="CK2" t="n">
-        <v>5.18</v>
+        <v>7.22</v>
       </c>
       <c r="CL2" t="n">
-        <v>5.1</v>
+        <v>-3.86</v>
       </c>
       <c r="CM2" t="n">
-        <v>-37.99</v>
+        <v>-2.59</v>
       </c>
       <c r="CN2" t="n">
-        <v>17.5</v>
+        <v>-6.57</v>
       </c>
       <c r="CO2" t="n">
-        <v>-1.1</v>
+        <v>-1.09</v>
       </c>
       <c r="CP2" t="n">
-        <v>14.7</v>
+        <v>17.37</v>
       </c>
       <c r="CQ2" t="n">
-        <v>95.56999999999999</v>
+        <v>-28.68</v>
       </c>
       <c r="CR2" t="n">
-        <v>3.6</v>
+        <v>-38.72</v>
       </c>
       <c r="CS2" t="n">
-        <v>47.7</v>
+        <v>-3.65</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.09</v>
+        <v>13.49</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.99</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="CV2" t="n">
-        <v>10.68</v>
+        <v>10.53</v>
       </c>
       <c r="CW2" t="n">
-        <v>-17.77</v>
+        <v>-24.37</v>
       </c>
       <c r="CX2" t="n">
-        <v>-14.32</v>
+        <v>-2.42</v>
       </c>
       <c r="CY2" t="n">
-        <v>4.19</v>
+        <v>5.2</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-27.38</v>
+        <v>-24.38</v>
       </c>
       <c r="DA2" t="n">
-        <v>8.91</v>
+        <v>19.92</v>
       </c>
       <c r="DB2" t="n">
-        <v>70.06999999999999</v>
+        <v>-23.99</v>
       </c>
       <c r="DC2" t="n">
-        <v>-8.279999999999999</v>
+        <v>-0.73</v>
       </c>
       <c r="DD2" t="n">
-        <v>7.65</v>
+        <v>-6.14</v>
       </c>
       <c r="DE2" t="n">
-        <v>-24.54</v>
+        <v>-13.1</v>
       </c>
       <c r="DF2" t="n">
-        <v>13.28</v>
+        <v>24.24</v>
       </c>
       <c r="DG2" t="n">
-        <v>16.28</v>
+        <v>30.12</v>
       </c>
       <c r="DH2" t="n">
-        <v>2.74</v>
+        <v>3.56</v>
       </c>
       <c r="DI2" t="n">
-        <v>-12.93</v>
+        <v>-10.81</v>
       </c>
       <c r="DJ2" t="n">
-        <v>15.65</v>
+        <v>11.5</v>
       </c>
       <c r="DK2" t="n">
-        <v>8.890000000000001</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="3">
@@ -1359,344 +1359,344 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.96</v>
+        <v>17.54</v>
       </c>
       <c r="C3" t="n">
-        <v>10.08</v>
+        <v>9.5</v>
       </c>
       <c r="D3" t="n">
-        <v>86.88</v>
+        <v>57.8</v>
       </c>
       <c r="E3" t="n">
-        <v>13.82</v>
+        <v>22.15</v>
       </c>
       <c r="F3" t="n">
-        <v>-17.67</v>
+        <v>5.87</v>
       </c>
       <c r="G3" t="n">
-        <v>-91.22</v>
+        <v>124.69</v>
       </c>
       <c r="H3" t="n">
-        <v>74.45999999999999</v>
+        <v>39</v>
       </c>
       <c r="I3" t="n">
-        <v>-7.95</v>
+        <v>3.92</v>
       </c>
       <c r="J3" t="n">
-        <v>-7.69</v>
+        <v>-0.17</v>
       </c>
       <c r="K3" t="n">
-        <v>-19.48</v>
+        <v>1.52</v>
       </c>
       <c r="L3" t="n">
-        <v>-67.93000000000001</v>
+        <v>14.89</v>
       </c>
       <c r="M3" t="n">
-        <v>5.29</v>
+        <v>9.93</v>
       </c>
       <c r="N3" t="n">
-        <v>-7.41</v>
+        <v>-16.77</v>
       </c>
       <c r="O3" t="n">
-        <v>-9.050000000000001</v>
+        <v>2.54</v>
       </c>
       <c r="P3" t="n">
-        <v>5.62</v>
+        <v>3.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>-29.78</v>
+        <v>-39.47</v>
       </c>
       <c r="R3" t="n">
-        <v>-44</v>
+        <v>28.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0.91</v>
+        <v>20.14</v>
       </c>
       <c r="T3" t="n">
-        <v>-3</v>
+        <v>1.7</v>
       </c>
       <c r="U3" t="n">
-        <v>-7.5</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>-6.5</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>-14.9</v>
+        <v>-6.3</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>-20.6</v>
+        <v>-13.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>14.1</v>
+        <v>5</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.07</v>
+        <v>4.89</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.67</v>
+        <v>6.64</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.9</v>
+        <v>0.1</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.13</v>
+        <v>16.76</v>
       </c>
       <c r="AF3" t="n">
-        <v>-6.69</v>
+        <v>-12.83</v>
       </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>-41.41</v>
+        <v>51.99</v>
       </c>
       <c r="AI3" t="n">
-        <v>-67.04000000000001</v>
+        <v>-88.8</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-41.7</v>
+        <v>-40.08</v>
       </c>
       <c r="AK3" t="n">
-        <v>-40.97</v>
+        <v>-11.43</v>
       </c>
       <c r="AL3" t="n">
-        <v>12.58</v>
+        <v>35.62</v>
       </c>
       <c r="AM3" t="n">
-        <v>-8.699999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="AN3" t="n">
-        <v>-5.49</v>
+        <v>-10.28</v>
       </c>
       <c r="AO3" t="n">
-        <v>-10.1</v>
+        <v>-3.38</v>
       </c>
       <c r="AP3" t="n">
-        <v>-26.21</v>
+        <v>-17.98</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10.31</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
-        <v>-67.17</v>
+        <v>-86</v>
       </c>
       <c r="AS3" t="n">
-        <v>-75.25</v>
+        <v>-76.7</v>
       </c>
       <c r="AT3" t="n">
-        <v>-66.09</v>
+        <v>-77.40000000000001</v>
       </c>
       <c r="AU3" t="n">
-        <v>18.7</v>
+        <v>25.7</v>
       </c>
       <c r="AV3" t="n">
-        <v>6.15</v>
+        <v>7.22</v>
       </c>
       <c r="AW3" t="n">
-        <v>-64.90000000000001</v>
+        <v>-79.8</v>
       </c>
       <c r="AX3" t="n">
-        <v>-5.17</v>
+        <v>-14.91</v>
       </c>
       <c r="AY3" t="n">
-        <v>-12.8</v>
+        <v>-17.95</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.65</v>
+        <v>17.98</v>
       </c>
       <c r="BA3" t="n">
-        <v>-3.48</v>
+        <v>13.52</v>
       </c>
       <c r="BB3" t="n">
-        <v>-27.25</v>
+        <v>-4.67</v>
       </c>
       <c r="BC3" t="n">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="BD3" t="n">
-        <v>-24.86</v>
+        <v>-20.75</v>
       </c>
       <c r="BE3" t="n">
-        <v>-5.22</v>
+        <v>1.5</v>
       </c>
       <c r="BF3" t="n">
-        <v>-9.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="BG3" t="n">
-        <v>-17</v>
+        <v>0.8</v>
       </c>
       <c r="BH3" t="n">
-        <v>33.65</v>
+        <v>5.8</v>
       </c>
       <c r="BI3" t="n">
-        <v>-24.3</v>
+        <v>2.5</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-2.6</v>
+        <v>2.5</v>
       </c>
       <c r="BK3" t="n">
-        <v>-48.22</v>
+        <v>-8.25</v>
       </c>
       <c r="BL3" t="n">
-        <v>-5.38</v>
+        <v>5.57</v>
       </c>
       <c r="BM3" t="n">
-        <v>-14.73</v>
+        <v>6.3</v>
       </c>
       <c r="BN3" t="n">
-        <v>2.18</v>
+        <v>19.1</v>
       </c>
       <c r="BO3" t="n">
-        <v>-1.64</v>
+        <v>-3.5</v>
       </c>
       <c r="BP3" t="n">
-        <v>2.5</v>
+        <v>18.6</v>
       </c>
       <c r="BQ3" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="BR3" t="n">
-        <v>37.6</v>
+        <v>27.6</v>
       </c>
       <c r="BS3" t="n">
-        <v>17.62</v>
+        <v>16.4</v>
       </c>
       <c r="BT3" t="n">
-        <v>23.28</v>
+        <v>42.79</v>
       </c>
       <c r="BU3" t="n">
-        <v>27.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BV3" t="n">
-        <v>-3.37</v>
+        <v>5.8</v>
       </c>
       <c r="BW3" t="n">
-        <v>-5.05</v>
+        <v>-1</v>
       </c>
       <c r="BX3" t="n">
-        <v>-9.1</v>
+        <v>-7.3</v>
       </c>
       <c r="BY3" t="n">
-        <v>-10.4</v>
+        <v>-2.2</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-8.199999999999999</v>
+        <v>-1.9</v>
       </c>
       <c r="CA3" t="n">
-        <v>6.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="CB3" t="n">
-        <v>1</v>
+        <v>30.7</v>
       </c>
       <c r="CC3" t="n">
-        <v>-10.35</v>
+        <v>28.38</v>
       </c>
       <c r="CD3" t="n">
-        <v>7.54</v>
+        <v>-58.03</v>
       </c>
       <c r="CE3" t="n">
-        <v>-8.52</v>
+        <v>-1.13</v>
       </c>
       <c r="CF3" t="n">
-        <v>4.42</v>
+        <v>16.12</v>
       </c>
       <c r="CG3" t="n">
-        <v>5.5</v>
+        <v>5.94</v>
       </c>
       <c r="CH3" t="n">
-        <v>18.54</v>
+        <v>0.72</v>
       </c>
       <c r="CI3" t="n">
-        <v>8.74</v>
+        <v>16.53</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-47.98</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="CK3" t="n">
-        <v>-16.6</v>
+        <v>-3.4</v>
       </c>
       <c r="CL3" t="n">
-        <v>-12.7</v>
+        <v>10.6</v>
       </c>
       <c r="CM3" t="n">
-        <v>12.65</v>
+        <v>-21.2</v>
       </c>
       <c r="CN3" t="n">
-        <v>-34.52</v>
+        <v>17</v>
       </c>
       <c r="CO3" t="n">
-        <v>-17.74</v>
+        <v>-7.73</v>
       </c>
       <c r="CP3" t="n">
-        <v>14</v>
+        <v>17.9</v>
       </c>
       <c r="CQ3" t="n">
-        <v>6.87</v>
+        <v>7.23</v>
       </c>
       <c r="CR3" t="n">
-        <v>-17.82</v>
+        <v>-29.5</v>
       </c>
       <c r="CS3" t="n">
-        <v>-42.61</v>
+        <v>3.26</v>
       </c>
       <c r="CT3" t="n">
-        <v>-0.6899999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="CU3" t="n">
-        <v>-10.4</v>
+        <v>-13.8</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.92</v>
+        <v>10.19</v>
       </c>
       <c r="CW3" t="n">
-        <v>-26.49</v>
+        <v>31.11</v>
       </c>
       <c r="CX3" t="n">
-        <v>13.4</v>
+        <v>4.1</v>
       </c>
       <c r="CY3" t="n">
-        <v>16.5</v>
+        <v>25.9</v>
       </c>
       <c r="CZ3" t="n">
-        <v>86.31</v>
+        <v>15.9</v>
       </c>
       <c r="DA3" t="n">
-        <v>-10.67</v>
+        <v>-0.8</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0.16</v>
+        <v>-0.12</v>
       </c>
       <c r="DC3" t="n">
-        <v>-1.17</v>
+        <v>-6.4</v>
       </c>
       <c r="DD3" t="n">
-        <v>-7.27</v>
+        <v>-7.6</v>
       </c>
       <c r="DE3" t="n">
-        <v>-20.92</v>
+        <v>-20.32</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.9</v>
+        <v>9.5</v>
       </c>
       <c r="DG3" t="n">
-        <v>16.2</v>
+        <v>29.5</v>
       </c>
       <c r="DH3" t="n">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="DI3" t="n">
-        <v>-7.11</v>
+        <v>-16.81</v>
       </c>
       <c r="DJ3" t="n">
-        <v>34.08</v>
+        <v>17.5</v>
       </c>
       <c r="DK3" t="n">
-        <v>2.2</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="4">
@@ -1706,344 +1706,691 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-8.300000000000001</v>
+        <v>-10.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-16.7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>-40.3</v>
+        <v>-12</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.199999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="F4" t="n">
-        <v>-25.9</v>
+        <v>2.6</v>
       </c>
       <c r="G4" t="n">
         <v>-21.7</v>
       </c>
       <c r="H4" t="n">
-        <v>-19.5</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="n">
-        <v>-40</v>
+        <v>1.4</v>
       </c>
       <c r="J4" t="n">
-        <v>-42.7</v>
+        <v>-3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>-7.6</v>
+        <v>11.7</v>
       </c>
       <c r="L4" t="n">
-        <v>-41.6</v>
+        <v>-37.7</v>
       </c>
       <c r="M4" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="N4" t="n">
-        <v>-12.8</v>
+        <v>-6.9</v>
       </c>
       <c r="O4" t="n">
-        <v>-30.6</v>
+        <v>-0.3</v>
       </c>
       <c r="P4" t="n">
-        <v>-34.1</v>
+        <v>-1.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>-38.7</v>
+        <v>-19.6</v>
       </c>
       <c r="R4" t="n">
-        <v>-14.3</v>
+        <v>-41.2</v>
       </c>
       <c r="S4" t="n">
-        <v>-86.40000000000001</v>
+        <v>-19.9</v>
       </c>
       <c r="T4" t="n">
-        <v>-10.1</v>
+        <v>21.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>23.3</v>
       </c>
       <c r="V4" t="n">
-        <v>-25.6</v>
+        <v>-0.1</v>
       </c>
       <c r="W4" t="n">
-        <v>-14.8</v>
+        <v>3.7</v>
       </c>
       <c r="X4" t="n">
-        <v>-8</v>
+        <v>1.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>-10.7</v>
+        <v>3.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>-12.9</v>
+        <v>-26.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.6</v>
+        <v>24.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>33.1</v>
+        <v>24.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>40.9</v>
+        <v>26.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>-26.6</v>
+        <v>-16.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>-31</v>
+        <v>7.3</v>
       </c>
       <c r="AF4" t="n">
-        <v>-11.2</v>
+        <v>-4.6</v>
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>-22.7</v>
+        <v>2.2</v>
       </c>
       <c r="AI4" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-18</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-20.3</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-70.3</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>-21.3</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>-38</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>-14.3</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>-9.699999999999999</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>26</v>
+      </c>
+      <c r="BO4" t="n">
         <v>-11</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="BP4" t="n">
+        <v>-12.9</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>-31.6</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>-7.7</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>-32.2</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>17</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>-27.1</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>-12.6</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>-12.2</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>-22.8</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>-18.4</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>-27.3</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G5" t="n">
         <v>-21.2</v>
       </c>
-      <c r="AK4" t="n">
-        <v>-12.6</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>-16.1</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>-32.6</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>-40.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>-29.6</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>-12.2</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>-12</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>-28.7</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>-41</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>-55.1</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>-20.1</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>-62.3</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>-48.2</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>-46.2</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>-16.4</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>-16.2</v>
-      </c>
-      <c r="BB4" t="n">
+      <c r="H5" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-37.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-13.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="U5" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="W5" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-40.4</v>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-22</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="CD5" t="n">
         <v>-23</v>
       </c>
-      <c r="BC4" t="n">
-        <v>-42.8</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>-54.6</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>-27</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>-59.3</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>-25.9</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>-7.6</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>10</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>-25.1</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>-8.300000000000001</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>-7</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>-30.1</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>-19.6</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>-11.7</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>-18.4</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>-33.4</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>11</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>-59.7</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>-16</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>-31.3</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>-25.8</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>-5.3</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>-17.7</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>-9.1</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>-53.8</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>-55.8</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>-50.3</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>-17.3</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>16</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>-47</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>-13.8</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>-20.6</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>-9.4</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>-20.4</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>-16.9</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>-47.3</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>-19.9</v>
-      </c>
-      <c r="DB4" t="n">
-        <v>-46.3</v>
-      </c>
-      <c r="DC4" t="n">
-        <v>-8.199999999999999</v>
-      </c>
-      <c r="DD4" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>-43.6</v>
-      </c>
-      <c r="DF4" t="n">
-        <v>-11.9</v>
-      </c>
-      <c r="DG4" t="n">
-        <v>-4.3</v>
-      </c>
-      <c r="DH4" t="n">
-        <v>-10.9</v>
-      </c>
-      <c r="DI4" t="n">
-        <v>-48.7</v>
-      </c>
-      <c r="DJ4" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="DK4" t="n">
-        <v>-16.2</v>
+      <c r="CE5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>-16.8</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>-36.7</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>27</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>28</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>33.2</v>
       </c>
     </row>
   </sheetData>
